--- a/AFFINITY_PORTAL_FLOW.xlsx
+++ b/AFFINITY_PORTAL_FLOW.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="143">
   <si>
     <t xml:space="preserve">Srno</t>
   </si>
@@ -374,7 +374,16 @@
     <t xml:space="preserve">w</t>
   </si>
   <si>
+    <t xml:space="preserve">Akshay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XGDUISACGuaDVG</t>
+  </si>
+  <si>
     <t xml:space="preserve">dsdsvdsvdsvdsvdsvdsvds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vikvpj</t>
   </si>
   <si>
     <t xml:space="preserve">sdvsdvsdvsvsdd1e121eqwdsacxZ</t>
@@ -848,7 +857,7 @@
   <dimension ref="A1:AMJ129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A110" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J118" activeCellId="0" sqref="J118"/>
+      <selection pane="topLeft" activeCell="F122" activeCellId="0" sqref="F122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7897,14 +7906,29 @@
         <v>12</v>
       </c>
     </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F122" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D123" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E125" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H126" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H129" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -7951,16 +7975,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
@@ -7984,7 +8008,7 @@
         <v>30</v>
       </c>
       <c r="L1" s="28" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M1" s="19" t="s">
         <v>72</v>
@@ -8044,7 +8068,7 @@
         <v>21</v>
       </c>
       <c r="AF1" s="19" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8067,7 +8091,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H2" s="30" t="n">
         <f aca="false">TRUE()</f>
@@ -8077,52 +8101,52 @@
         <v>12</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K2" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>12</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q2" s="32" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="R2" s="19" t="n">
         <v>6372367549</v>
       </c>
       <c r="S2" s="19" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="T2" s="19" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="U2" s="19" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="V2" s="19" t="n">
         <v>12041983</v>
       </c>
       <c r="W2" s="19" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="X2" s="19" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Y2" s="32" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Z2" s="19" t="n">
         <v>1111111111</v>
@@ -8134,7 +8158,7 @@
         <v>12345</v>
       </c>
       <c r="AC2" s="19" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AD2" s="19" t="s">
         <v>12</v>
@@ -8143,7 +8167,7 @@
         <v>60</v>
       </c>
       <c r="AF2" s="19" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
